--- a/Week08_Grading_Rubric.xlsx
+++ b/Week08_Grading_Rubric.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keithcherkauer/Documents/GitHub-Classroom/08 Time Series Analysis with Pandas-05-04-2020-11-13-19/aggarw82/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keithcherkauer/Documents/GitHub-Classroom/08 Time Series Analysis with Pandas-05-11-2020-03-49-57/aggarw82/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD74D9AE-690E-034E-AC85-E5539CCD3B62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED34795-13E3-524D-9328-39F75B23A411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24560" windowHeight="16760" xr2:uid="{70B9C94D-AB40-4B01-A8E7-2F6A688A3993}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24560" windowHeight="16500" xr2:uid="{70B9C94D-AB40-4B01-A8E7-2F6A688A3993}"/>
   </bookViews>
   <sheets>
     <sheet name="Python Files" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
     <t>no outputs from tutorial</t>
   </si>
   <si>
-    <t>plot not submitted</t>
+    <t>plot resubmitted</t>
   </si>
 </sst>
 </file>
@@ -295,11 +295,11 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A1D232-33DD-4953-BB28-3A406F3F691C}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19:K20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -633,22 +633,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="19"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
@@ -695,13 +695,13 @@
       <c r="C3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
       <c r="G3" s="14" t="s">
         <v>25</v>
       </c>
@@ -711,7 +711,7 @@
       </c>
       <c r="J3" s="16">
         <f>IF(B3,A4*B4*J$23,IF(D3,A4*D4*J$23,IF(F3,A4*F4*J$23,IF(H3,A4*H4*J$23))))</f>
-        <v>2.2500000000000004</v>
+        <v>4.5000000000000009</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>41</v>
@@ -748,13 +748,13 @@
       <c r="C5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
       <c r="G5" s="14" t="s">
         <v>25</v>
       </c>
@@ -764,7 +764,7 @@
       </c>
       <c r="J5" s="16">
         <f>IF(B5,A6*B6*J$23,IF(D5,A6*D6*J$23,IF(F5,A6*F6*J$23,IF(H5,A6*H6*J$23))))</f>
-        <v>2.2500000000000004</v>
+        <v>4.5000000000000009</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>41</v>
@@ -801,13 +801,13 @@
       <c r="C7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
       <c r="G7" s="14" t="s">
         <v>25</v>
       </c>
@@ -817,7 +817,7 @@
       </c>
       <c r="J7" s="16">
         <f>IF(B7,A8*B8*J$23,IF(D7,A8*D8*J$23,IF(F7,A8*F8*J$23,IF(H7,A8*H8*J$23))))</f>
-        <v>2.2500000000000004</v>
+        <v>4.5000000000000009</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>41</v>
@@ -1087,7 +1087,7 @@
       <c r="B18" s="1">
         <v>0</v>
       </c>
-      <c r="C18" s="18"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="2">
         <v>0.45</v>
       </c>
@@ -1138,7 +1138,7 @@
       <c r="B20" s="1">
         <v>0</v>
       </c>
-      <c r="C20" s="18"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="2">
         <v>0.45</v>
       </c>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="J22" s="7">
         <f>SUM(J3:J20)</f>
-        <v>40.75</v>
+        <v>47.500000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -1181,18 +1181,36 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="58">
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="K19:K20"/>
     <mergeCell ref="H1:I1"/>
@@ -1209,36 +1227,18 @@
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
